--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B1D45-2799-448F-874E-91E2F1DA4EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -315,59 +316,60 @@
     <t>異動原因</t>
   </si>
   <si>
+    <t>與借款人關係</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>停用原因</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇手機或簡訊則只填入此欄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileEq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TelTypeCode = ,AND TelNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey ASC,CreateDate ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>共用代碼檔
 01:客戶申請
-……</t>
-  </si>
-  <si>
-    <t>與借款人關係</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>停用原因</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>選擇手機或簡訊則只填入此欄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileEq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TelTypeCode = ,AND TelNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey ASC,CreateDate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+02:催收人員新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -610,8 +612,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,6 +704,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -737,6 +756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -912,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -949,7 +985,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>24</v>
@@ -1142,7 +1178,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,7 +1218,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -1193,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1233,7 +1269,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>11</v>
@@ -1252,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>11</v>
@@ -1289,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>31</v>
@@ -1325,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>34</v>
@@ -1796,10 +1832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -1831,7 +1867,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,18 +1878,18 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B1D45-2799-448F-874E-91E2F1DA4EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E08CE45-83B0-4564-B93B-7890338E37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>客戶聯絡電話檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -951,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -985,7 +981,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>24</v>
@@ -1040,9 +1036,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1087,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>15</v>
@@ -1106,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>10</v>
@@ -1125,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1138,7 +1132,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,7 +1172,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1208,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1218,7 +1212,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -1229,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1269,7 +1263,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>11</v>
@@ -1288,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>11</v>
@@ -1317,7 +1311,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1325,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>31</v>
@@ -1361,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>34</v>
@@ -1861,35 +1855,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustTelNo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E08CE45-83B0-4564-B93B-7890338E37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -193,9 +192,6 @@
   </si>
   <si>
     <t>建檔人員</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
   </si>
   <si>
     <t>最後更新人員</t>
@@ -352,20 +348,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LastUpdate ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>共用代碼檔
 01:客戶申請
 02:催收人員新增</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -608,8 +608,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,23 +700,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,23 +735,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -968,10 +934,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -981,7 +947,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>24</v>
@@ -1009,10 +975,10 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1024,7 +990,7 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1081,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>15</v>
@@ -1100,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>10</v>
@@ -1119,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1132,7 +1098,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1140,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>16</v>
@@ -1159,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>17</v>
@@ -1172,7 +1138,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1180,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>18</v>
@@ -1199,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1212,7 +1178,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -1223,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1233,7 +1199,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1241,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>20</v>
@@ -1260,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>11</v>
@@ -1282,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>11</v>
@@ -1298,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>22</v>
@@ -1311,7 +1277,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1319,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>31</v>
@@ -1355,10 +1321,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>13</v>
@@ -1375,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>3</v>
@@ -1826,12 +1792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1855,35 +1821,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
